--- a/Turma 6/Testing l/Caso de Uso - Template.xlsx
+++ b/Turma 6/Testing l/Caso de Uso - Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Desktop\CTD\Turma 6\Testing l\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE4EB80-254D-42F2-88C4-566918F90614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5118E24C-18AD-4FF6-B569-0676FFCE2933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4F8A38D9-B9C1-42D6-AEB2-396C93C0EC4D}"/>
   </bookViews>
@@ -145,7 +145,29 @@
     <t>https://ctd-testing-resto-app.herokuapp.com/</t>
   </si>
   <si>
-    <t>Acessar a aplicação "Comida Ya!"</t>
+    <r>
+      <t>Acessar a aplicação "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comida Ya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -425,16 +447,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -820,7 +842,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>44711</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -862,7 +884,7 @@
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
         <v>0.92708333333333337</v>
       </c>
     </row>
@@ -870,7 +892,7 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <v>0.93611111111111101</v>
       </c>
     </row>
@@ -951,7 +973,7 @@
       <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -971,7 +993,7 @@
       <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
@@ -989,7 +1011,7 @@
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -1009,11 +1031,11 @@
       <c r="A13" s="15">
         <v>5</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
